--- a/medicine/Sexualité et sexologie/Carlõ/Carlõ.xlsx
+++ b/medicine/Sexualité et sexologie/Carlõ/Carlõ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carl%C3%B5</t>
+          <t>Carlõ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlõ est le pseudonyme d'un illustrateur, probablement français, dont le véritable nom est inconnu. 
 Il aurait peut-être travaillé comme caricaturiste à la revue l'Humour sous le pseudonyme de Charléno (Charles Hénaut ?). Carlo a illustré de nombreux récits sadomasochistes publiés dans les années 1930 à la Librairie Artistique (et Éditions Parisiennes réunies) ainsi qu'à la Librairie Générale. Plusieurs des ouvrages illustrés par Carlo ont été réédités dans les années 1970 par les éditions Dominique Leroy.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carl%C3%B5</t>
+          <t>Carlõ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Livres illustrés en français</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aux éditions Dominique Leroy
 Bagne de femmes, Alan Mac Clyde, Paris, 1981
